--- a/02_MasterWifoMannheim/99_Backup/Course148.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course148.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD32051265F592811599508B754D5F98F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{270A88FB-E3FA-4EC8-8755-1EF08E74016B}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MKT 623 Strategic Marketing Management Simulation</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>The module is designed for students who expect to undertake assignments within the context of strategic marketing management. This module is concerned with the development, evaluation, and implementation of marketing management elements in a strategic setting. The module deals primarily with an analysis of concepts, theories, techniques, and models in marketing. Basis for the module is a computer simulation in the context of strategic marketing decisions of a leading manufacturer of over-the-counter cold medicine.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students will be able to apply their theoretical and conceptual knowledge of marketing management in a hands-on application exercise. Students can hone their understanding within the following four categories: Situation Analysis STP - Segmentation, targeting and positioning Marketing mix (4Ps – product, price, promotion, place) Integrated marketing decision-making and analysis</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:“Student Portal” (information on central registration process) and website of the chair (course information).</t>
-  </si>
-  <si>
-    <t>Courses Hours per weekSelf-study Computer Simulation 1 3</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Simulation result: 50%, strategy outline: 25%, final report: 25%</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Sabine Kuester</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Econ., M.Sc. Bus. Inf., M.Sc. Bus. Edu., M.A. K&amp;W</t>
-  </si>
-  <si>
-    <t>Marketing and Sales (MKT)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MKT 623 Strategic Marketing Management Simulation</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The module is designed for students who expect to undertake assignments within the context of strategic marketing management. This module is concerned with the development, evaluation, and implementation of marketing management elements in a strategic setting. The module deals primarily with an analysis of concepts, theories, techniques, and models in marketing. Basis for the module is a computer simulation in the context of strategic marketing decisions of a leading manufacturer of over-the-counter cold medicine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students will be able to apply their theoretical and conceptual knowledge of marketing management in a hands-on application exercise. Students can hone their understanding within the following four categories: Situation Analysis STP - Segmentation, targeting and positioning Marketing mix (4Ps – product, price, promotion, place) Integrated marketing decision-making and analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marketing and Sales (MKT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:“Student Portal” (information on central registration process) and website of the chair (course information).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per weekSelf-study Computer Simulation 1 3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Simulation result: 50%, strategy outline: 25%, final report: 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Sabine Kuester</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Econ., M.Sc. Bus. Inf., M.Sc. Bus. Edu., M.A. K&amp;W</t>
+        </is>
       </c>
     </row>
   </sheetData>
